--- a/conejo/one_fictitious/formatted_data2.xlsx
+++ b/conejo/one_fictitious/formatted_data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F14E4-1944-4255-8A48-26387A507B31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE274A6D-9D5B-42DA-ACFF-607C442D7145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{206B38AF-B158-4A2F-BE7D-63550E81CF93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206B38AF-B158-4A2F-BE7D-63550E81CF93}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="2" r:id="rId1"/>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48C496-F7AF-4FF9-950F-2B7D99AF3318}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -2457,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2792DB09-1701-473D-BFB4-0C7883DAA05E}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2539,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -2583,7 +2583,7 @@
         <v>0.158</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L3">
         <v>600</v>
@@ -2627,7 +2627,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L4">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data2.xlsx
+++ b/conejo/one_fictitious/formatted_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE274A6D-9D5B-42DA-ACFF-607C442D7145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B85754-25A0-47CA-A57E-E5CBBEF14E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206B38AF-B158-4A2F-BE7D-63550E81CF93}"/>
   </bookViews>
@@ -2458,7 +2458,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2539,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -2583,7 +2583,7 @@
         <v>0.158</v>
       </c>
       <c r="K3">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>600</v>
@@ -2627,7 +2627,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data2.xlsx
+++ b/conejo/one_fictitious/formatted_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B85754-25A0-47CA-A57E-E5CBBEF14E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC922B-FDC7-40C3-94E9-E350D274F871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{206B38AF-B158-4A2F-BE7D-63550E81CF93}"/>
   </bookViews>
@@ -727,7 +727,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2627,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>600</v>
@@ -2671,7 +2671,7 @@
         <v>0.218</v>
       </c>
       <c r="K5">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="L5">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data2.xlsx
+++ b/conejo/one_fictitious/formatted_data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D3A53-D8CF-4583-A587-4AB0CC6D3CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0A4D6-14E5-4A04-96C5-9016697E6EF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1530" windowWidth="16200" windowHeight="10200" activeTab="1" xr2:uid="{206B38AF-B158-4A2F-BE7D-63550E81CF93}"/>
+    <workbookView xWindow="5745" yWindow="2820" windowWidth="15720" windowHeight="12465" activeTab="1" xr2:uid="{206B38AF-B158-4A2F-BE7D-63550E81CF93}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>B34</t>
   </si>
@@ -196,15 +196,6 @@
   </si>
   <si>
     <t>AB1</t>
-  </si>
-  <si>
-    <t>AB2</t>
-  </si>
-  <si>
-    <t>AB3</t>
-  </si>
-  <si>
-    <t>CB-1</t>
   </si>
   <si>
     <t>Bus #</t>
@@ -2474,7 +2465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2792DB09-1701-473D-BFB4-0C7883DAA05E}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2558,7 +2549,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -2567,138 +2558,6 @@
         <v>220</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>113</v>
-      </c>
-      <c r="C3">
-        <v>215</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <v>0.47</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1.3</v>
-      </c>
-      <c r="H3">
-        <v>0.01</v>
-      </c>
-      <c r="I3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.158</v>
-      </c>
-      <c r="K3">
-        <v>500</v>
-      </c>
-      <c r="L3">
-        <v>600</v>
-      </c>
-      <c r="M3">
-        <v>625</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <v>217</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>0.46</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1.3</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-      <c r="I4">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.155</v>
-      </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>600</v>
-      </c>
-      <c r="M4">
-        <v>625</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>318</v>
-      </c>
-      <c r="C5">
-        <v>223</v>
-      </c>
-      <c r="D5">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>0.53</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>1.8</v>
-      </c>
-      <c r="H5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.104</v>
-      </c>
-      <c r="J5">
-        <v>0.218</v>
-      </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
-        <v>600</v>
-      </c>
-      <c r="M5">
-        <v>625</v>
-      </c>
-      <c r="N5">
         <v>0</v>
       </c>
     </row>
@@ -2712,50 +2571,50 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD34"/>
+      <selection activeCell="M2" sqref="M2:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
       </c>
       <c r="L1" t="s">
         <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2763,7 +2622,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2796,7 +2655,7 @@
         <v>34</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>1.0210999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,7 +2663,7 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2837,7 +2696,7 @@
         <v>35</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>1.1254</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2845,7 +2704,7 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2878,7 +2737,7 @@
         <v>36</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>1.1141000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2886,7 +2745,7 @@
         <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2919,7 +2778,7 @@
         <v>37</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>1.1016999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,7 +2786,7 @@
         <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2960,7 +2819,7 @@
         <v>38</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>1.0333000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2968,7 +2827,7 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3001,7 +2860,7 @@
         <v>39</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>1.1564000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3009,7 +2868,7 @@
         <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3042,7 +2901,7 @@
         <v>40</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>1.1174999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3050,7 +2909,7 @@
         <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3083,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3091,7 +2950,7 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3124,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>1.1011</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,7 +2991,7 @@
         <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3165,7 +3024,7 @@
         <v>43</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>1.0869</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3173,7 +3032,7 @@
         <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3206,7 +3065,7 @@
         <v>44</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3214,7 +3073,7 @@
         <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3247,7 +3106,7 @@
         <v>45</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>1.0857000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3255,7 +3114,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3288,7 +3147,7 @@
         <v>46</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>1.0584</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3296,7 +3155,7 @@
         <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3329,7 +3188,7 @@
         <v>47</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>1.0509999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,7 +3196,7 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3370,7 +3229,7 @@
         <v>48</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>1.0422</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3378,7 +3237,7 @@
         <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3411,7 +3270,7 @@
         <v>49</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>1.0732999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3419,7 +3278,7 @@
         <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3452,7 +3311,7 @@
         <v>50</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3460,7 +3319,7 @@
         <v>215</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3493,7 +3352,7 @@
         <v>51</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>1.1482000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3501,7 +3360,7 @@
         <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3534,7 +3393,7 @@
         <v>52</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>1.1259999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3542,7 +3401,7 @@
         <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -3575,7 +3434,7 @@
         <v>53</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3583,7 +3442,7 @@
         <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -3616,7 +3475,7 @@
         <v>54</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>1.0983000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,7 +3483,7 @@
         <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3657,7 +3516,7 @@
         <v>55</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>1.0601</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3665,7 +3524,7 @@
         <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3698,7 +3557,7 @@
         <v>56</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>1.1509</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3706,7 +3565,7 @@
         <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3739,7 +3598,7 @@
         <v>57</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>1.0932999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3747,7 +3606,7 @@
         <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3780,7 +3639,7 @@
         <v>58</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>1.0643</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3788,7 +3647,7 @@
         <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3821,7 +3680,7 @@
         <v>59</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>1.1676</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3829,7 +3688,7 @@
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3862,7 +3721,7 @@
         <v>60</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>1.0888</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,7 +3729,7 @@
         <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -3903,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3911,7 +3770,7 @@
         <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -3944,7 +3803,7 @@
         <v>62</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>1.0852999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3952,7 +3811,7 @@
         <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -3985,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>1.0576000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3993,7 +3852,7 @@
         <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4026,7 +3885,7 @@
         <v>64</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4034,7 +3893,7 @@
         <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4067,7 +3926,7 @@
         <v>65</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>1.2262999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4075,7 +3934,7 @@
         <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4108,7 +3967,7 @@
         <v>66</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>1.1828000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4128,37 +3987,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,7 +4025,7 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4201,7 +4060,7 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4236,7 +4095,7 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4271,7 +4130,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4306,7 +4165,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4341,7 +4200,7 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4376,7 +4235,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4411,7 +4270,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4446,7 +4305,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4481,7 +4340,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4516,7 +4375,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4551,7 +4410,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4586,7 +4445,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4621,7 +4480,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4656,7 +4515,7 @@
         <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4691,7 +4550,7 @@
         <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4726,7 +4585,7 @@
         <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4761,7 +4620,7 @@
         <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4796,7 +4655,7 @@
         <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4831,7 +4690,7 @@
         <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4866,7 +4725,7 @@
         <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4901,7 +4760,7 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4936,7 +4795,7 @@
         <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4971,7 +4830,7 @@
         <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>1</v>
